--- a/CHL/CHL_platemap_OFRAPS.xlsx
+++ b/CHL/CHL_platemap_OFRAPS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/TO DO : ORGANIZE/CHL/Transplants_Platemaps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/CHL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F720189-484F-4942-B8F9-EB2657A7F422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48056C95-3174-C84B-ABCC-77387783954E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4220" yWindow="500" windowWidth="19640" windowHeight="14240" xr2:uid="{EBBF6F8E-A352-C449-BF72-C503B922E56F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="137">
   <si>
     <t>A1</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>OFRA_PS_9GT47</t>
+  </si>
+  <si>
+    <t>might be 4HS23</t>
   </si>
 </sst>
 </file>
@@ -458,18 +461,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -486,7 +496,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -803,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B7DC77-4F53-384E-B067-72BD8D0D51CB}">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1198,7 +1208,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1206,7 +1216,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1214,7 +1224,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1222,23 +1232,29 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1246,7 +1262,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1254,7 +1270,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1262,7 +1278,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1270,7 +1286,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1278,7 +1294,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1286,7 +1302,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1294,7 +1310,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1302,7 +1318,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1310,7 +1326,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1318,7 +1334,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
